--- a/Project/BOM/Bill of Materials-Autobot_project-V2.xlsx
+++ b/Project/BOM/Bill of Materials-Autobot_project-V2.xlsx
@@ -556,7 +556,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
